--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_199.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_199.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33182-d82358-Reviews-Days_Inn_Torrance_Redondo_Beach-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>464</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Torrance-Redondo-Beach.h8674.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_199.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_199.xlsx
@@ -6099,7 +6099,7 @@
         <v>3959</v>
       </c>
       <c r="B3" t="n">
-        <v>135719</v>
+        <v>166644</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -6170,7 +6170,7 @@
         <v>3959</v>
       </c>
       <c r="B4" t="n">
-        <v>135720</v>
+        <v>166645</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -6308,7 +6308,7 @@
         <v>3959</v>
       </c>
       <c r="B6" t="n">
-        <v>135721</v>
+        <v>166646</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -6379,7 +6379,7 @@
         <v>3959</v>
       </c>
       <c r="B7" t="n">
-        <v>135722</v>
+        <v>166647</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -6450,7 +6450,7 @@
         <v>3959</v>
       </c>
       <c r="B8" t="n">
-        <v>135723</v>
+        <v>166648</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -6588,7 +6588,7 @@
         <v>3959</v>
       </c>
       <c r="B10" t="n">
-        <v>135724</v>
+        <v>166649</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
@@ -6659,7 +6659,7 @@
         <v>3959</v>
       </c>
       <c r="B11" t="n">
-        <v>135725</v>
+        <v>166650</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -6730,7 +6730,7 @@
         <v>3959</v>
       </c>
       <c r="B12" t="n">
-        <v>135726</v>
+        <v>166651</v>
       </c>
       <c r="C12" t="s">
         <v>116</v>
@@ -6801,7 +6801,7 @@
         <v>3959</v>
       </c>
       <c r="B13" t="n">
-        <v>135727</v>
+        <v>166652</v>
       </c>
       <c r="C13" t="s">
         <v>122</v>
@@ -6872,7 +6872,7 @@
         <v>3959</v>
       </c>
       <c r="B14" t="n">
-        <v>135728</v>
+        <v>166653</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
@@ -6943,7 +6943,7 @@
         <v>3959</v>
       </c>
       <c r="B15" t="n">
-        <v>135729</v>
+        <v>166654</v>
       </c>
       <c r="C15" t="s">
         <v>134</v>
@@ -7014,7 +7014,7 @@
         <v>3959</v>
       </c>
       <c r="B16" t="n">
-        <v>135730</v>
+        <v>166655</v>
       </c>
       <c r="C16" t="s">
         <v>140</v>
@@ -7085,7 +7085,7 @@
         <v>3959</v>
       </c>
       <c r="B17" t="n">
-        <v>135731</v>
+        <v>166656</v>
       </c>
       <c r="C17" t="s">
         <v>146</v>
@@ -7156,7 +7156,7 @@
         <v>3959</v>
       </c>
       <c r="B18" t="n">
-        <v>135732</v>
+        <v>166657</v>
       </c>
       <c r="C18" t="s">
         <v>153</v>
@@ -7218,7 +7218,7 @@
         <v>3959</v>
       </c>
       <c r="B19" t="n">
-        <v>135733</v>
+        <v>166658</v>
       </c>
       <c r="C19" t="s">
         <v>156</v>
@@ -7289,7 +7289,7 @@
         <v>3959</v>
       </c>
       <c r="B20" t="n">
-        <v>135734</v>
+        <v>166659</v>
       </c>
       <c r="C20" t="s">
         <v>162</v>
@@ -7360,7 +7360,7 @@
         <v>3959</v>
       </c>
       <c r="B21" t="n">
-        <v>135735</v>
+        <v>166660</v>
       </c>
       <c r="C21" t="s">
         <v>169</v>
@@ -7431,7 +7431,7 @@
         <v>3959</v>
       </c>
       <c r="B22" t="n">
-        <v>135736</v>
+        <v>166661</v>
       </c>
       <c r="C22" t="s">
         <v>175</v>
@@ -7573,7 +7573,7 @@
         <v>3959</v>
       </c>
       <c r="B24" t="n">
-        <v>135737</v>
+        <v>166662</v>
       </c>
       <c r="C24" t="s">
         <v>187</v>
@@ -7644,7 +7644,7 @@
         <v>3959</v>
       </c>
       <c r="B25" t="n">
-        <v>135738</v>
+        <v>166663</v>
       </c>
       <c r="C25" t="s">
         <v>193</v>
@@ -7711,7 +7711,7 @@
         <v>3959</v>
       </c>
       <c r="B26" t="n">
-        <v>135739</v>
+        <v>166664</v>
       </c>
       <c r="C26" t="s">
         <v>200</v>
@@ -7782,7 +7782,7 @@
         <v>3959</v>
       </c>
       <c r="B27" t="n">
-        <v>135740</v>
+        <v>166665</v>
       </c>
       <c r="C27" t="s">
         <v>207</v>
@@ -7853,7 +7853,7 @@
         <v>3959</v>
       </c>
       <c r="B28" t="n">
-        <v>135741</v>
+        <v>166666</v>
       </c>
       <c r="C28" t="s">
         <v>214</v>
@@ -7924,7 +7924,7 @@
         <v>3959</v>
       </c>
       <c r="B29" t="n">
-        <v>135742</v>
+        <v>166667</v>
       </c>
       <c r="C29" t="s">
         <v>220</v>
@@ -7995,7 +7995,7 @@
         <v>3959</v>
       </c>
       <c r="B30" t="n">
-        <v>135743</v>
+        <v>166668</v>
       </c>
       <c r="C30" t="s">
         <v>226</v>
@@ -8066,7 +8066,7 @@
         <v>3959</v>
       </c>
       <c r="B31" t="n">
-        <v>135744</v>
+        <v>166669</v>
       </c>
       <c r="C31" t="s">
         <v>232</v>
@@ -8137,7 +8137,7 @@
         <v>3959</v>
       </c>
       <c r="B32" t="n">
-        <v>135745</v>
+        <v>166670</v>
       </c>
       <c r="C32" t="s">
         <v>239</v>
@@ -8210,7 +8210,7 @@
         <v>3959</v>
       </c>
       <c r="B33" t="n">
-        <v>135746</v>
+        <v>166671</v>
       </c>
       <c r="C33" t="s">
         <v>248</v>
@@ -8285,7 +8285,7 @@
         <v>3959</v>
       </c>
       <c r="B34" t="n">
-        <v>135747</v>
+        <v>166672</v>
       </c>
       <c r="C34" t="s">
         <v>257</v>
@@ -8360,7 +8360,7 @@
         <v>3959</v>
       </c>
       <c r="B35" t="n">
-        <v>135748</v>
+        <v>166673</v>
       </c>
       <c r="C35" t="s">
         <v>266</v>
@@ -8435,7 +8435,7 @@
         <v>3959</v>
       </c>
       <c r="B36" t="n">
-        <v>135749</v>
+        <v>166674</v>
       </c>
       <c r="C36" t="s">
         <v>275</v>
@@ -8510,7 +8510,7 @@
         <v>3959</v>
       </c>
       <c r="B37" t="n">
-        <v>135750</v>
+        <v>166675</v>
       </c>
       <c r="C37" t="s">
         <v>284</v>
@@ -8585,7 +8585,7 @@
         <v>3959</v>
       </c>
       <c r="B38" t="n">
-        <v>135751</v>
+        <v>166676</v>
       </c>
       <c r="C38" t="s">
         <v>293</v>
@@ -8660,7 +8660,7 @@
         <v>3959</v>
       </c>
       <c r="B39" t="n">
-        <v>135752</v>
+        <v>166677</v>
       </c>
       <c r="C39" t="s">
         <v>302</v>
@@ -8735,7 +8735,7 @@
         <v>3959</v>
       </c>
       <c r="B40" t="n">
-        <v>135753</v>
+        <v>166678</v>
       </c>
       <c r="C40" t="s">
         <v>309</v>
@@ -8808,7 +8808,7 @@
         <v>3959</v>
       </c>
       <c r="B41" t="n">
-        <v>135754</v>
+        <v>166679</v>
       </c>
       <c r="C41" t="s">
         <v>315</v>
@@ -8883,7 +8883,7 @@
         <v>3959</v>
       </c>
       <c r="B42" t="n">
-        <v>135755</v>
+        <v>166680</v>
       </c>
       <c r="C42" t="s">
         <v>325</v>
@@ -8948,7 +8948,7 @@
         <v>3959</v>
       </c>
       <c r="B43" t="n">
-        <v>135756</v>
+        <v>166681</v>
       </c>
       <c r="C43" t="s">
         <v>334</v>
@@ -9023,7 +9023,7 @@
         <v>3959</v>
       </c>
       <c r="B44" t="n">
-        <v>135757</v>
+        <v>166682</v>
       </c>
       <c r="C44" t="s">
         <v>340</v>
@@ -9098,7 +9098,7 @@
         <v>3959</v>
       </c>
       <c r="B45" t="n">
-        <v>135758</v>
+        <v>166683</v>
       </c>
       <c r="C45" t="s">
         <v>350</v>
@@ -9173,7 +9173,7 @@
         <v>3959</v>
       </c>
       <c r="B46" t="n">
-        <v>135759</v>
+        <v>166684</v>
       </c>
       <c r="C46" t="s">
         <v>356</v>
@@ -9323,7 +9323,7 @@
         <v>3959</v>
       </c>
       <c r="B48" t="n">
-        <v>135760</v>
+        <v>166685</v>
       </c>
       <c r="C48" t="s">
         <v>374</v>
@@ -9398,7 +9398,7 @@
         <v>3959</v>
       </c>
       <c r="B49" t="n">
-        <v>135761</v>
+        <v>166686</v>
       </c>
       <c r="C49" t="s">
         <v>383</v>
@@ -9544,7 +9544,7 @@
         <v>3959</v>
       </c>
       <c r="B51" t="n">
-        <v>135762</v>
+        <v>166687</v>
       </c>
       <c r="C51" t="s">
         <v>399</v>
@@ -9619,7 +9619,7 @@
         <v>3959</v>
       </c>
       <c r="B52" t="n">
-        <v>135763</v>
+        <v>166688</v>
       </c>
       <c r="C52" t="s">
         <v>406</v>
@@ -9759,7 +9759,7 @@
         <v>3959</v>
       </c>
       <c r="B54" t="n">
-        <v>135764</v>
+        <v>166689</v>
       </c>
       <c r="C54" t="s">
         <v>420</v>
@@ -9834,7 +9834,7 @@
         <v>3959</v>
       </c>
       <c r="B55" t="n">
-        <v>135765</v>
+        <v>166690</v>
       </c>
       <c r="C55" t="s">
         <v>429</v>
@@ -9909,7 +9909,7 @@
         <v>3959</v>
       </c>
       <c r="B56" t="n">
-        <v>135766</v>
+        <v>166691</v>
       </c>
       <c r="C56" t="s">
         <v>436</v>
@@ -10049,7 +10049,7 @@
         <v>3959</v>
       </c>
       <c r="B58" t="n">
-        <v>135767</v>
+        <v>166692</v>
       </c>
       <c r="C58" t="s">
         <v>452</v>
@@ -10124,7 +10124,7 @@
         <v>3959</v>
       </c>
       <c r="B59" t="n">
-        <v>135768</v>
+        <v>166693</v>
       </c>
       <c r="C59" t="s">
         <v>458</v>
@@ -10199,7 +10199,7 @@
         <v>3959</v>
       </c>
       <c r="B60" t="n">
-        <v>135769</v>
+        <v>166694</v>
       </c>
       <c r="C60" t="s">
         <v>465</v>
@@ -10414,7 +10414,7 @@
         <v>3959</v>
       </c>
       <c r="B63" t="n">
-        <v>135770</v>
+        <v>166695</v>
       </c>
       <c r="C63" t="s">
         <v>486</v>
@@ -10489,7 +10489,7 @@
         <v>3959</v>
       </c>
       <c r="B64" t="n">
-        <v>135771</v>
+        <v>166696</v>
       </c>
       <c r="C64" t="s">
         <v>493</v>
@@ -10564,7 +10564,7 @@
         <v>3959</v>
       </c>
       <c r="B65" t="n">
-        <v>135772</v>
+        <v>166697</v>
       </c>
       <c r="C65" t="s">
         <v>500</v>
@@ -10639,7 +10639,7 @@
         <v>3959</v>
       </c>
       <c r="B66" t="n">
-        <v>135773</v>
+        <v>166698</v>
       </c>
       <c r="C66" t="s">
         <v>509</v>
@@ -10714,7 +10714,7 @@
         <v>3959</v>
       </c>
       <c r="B67" t="n">
-        <v>135774</v>
+        <v>166699</v>
       </c>
       <c r="C67" t="s">
         <v>518</v>
@@ -10789,7 +10789,7 @@
         <v>3959</v>
       </c>
       <c r="B68" t="n">
-        <v>135775</v>
+        <v>166700</v>
       </c>
       <c r="C68" t="s">
         <v>527</v>
@@ -10864,7 +10864,7 @@
         <v>3959</v>
       </c>
       <c r="B69" t="n">
-        <v>135776</v>
+        <v>166701</v>
       </c>
       <c r="C69" t="s">
         <v>536</v>
@@ -10925,7 +10925,7 @@
         <v>3959</v>
       </c>
       <c r="B70" t="n">
-        <v>135777</v>
+        <v>166702</v>
       </c>
       <c r="C70" t="s">
         <v>543</v>
@@ -10990,7 +10990,7 @@
         <v>3959</v>
       </c>
       <c r="B71" t="n">
-        <v>135778</v>
+        <v>166703</v>
       </c>
       <c r="C71" t="s">
         <v>551</v>
@@ -11065,7 +11065,7 @@
         <v>3959</v>
       </c>
       <c r="B72" t="n">
-        <v>135779</v>
+        <v>166704</v>
       </c>
       <c r="C72" t="s">
         <v>561</v>
@@ -11140,7 +11140,7 @@
         <v>3959</v>
       </c>
       <c r="B73" t="n">
-        <v>135780</v>
+        <v>166705</v>
       </c>
       <c r="C73" t="s">
         <v>570</v>
@@ -11290,7 +11290,7 @@
         <v>3959</v>
       </c>
       <c r="B75" t="n">
-        <v>135781</v>
+        <v>166706</v>
       </c>
       <c r="C75" t="s">
         <v>585</v>
@@ -11430,7 +11430,7 @@
         <v>3959</v>
       </c>
       <c r="B77" t="n">
-        <v>135782</v>
+        <v>166707</v>
       </c>
       <c r="C77" t="s">
         <v>602</v>
@@ -11499,7 +11499,7 @@
         <v>3959</v>
       </c>
       <c r="B78" t="n">
-        <v>135783</v>
+        <v>166708</v>
       </c>
       <c r="C78" t="s">
         <v>612</v>
@@ -11574,7 +11574,7 @@
         <v>3959</v>
       </c>
       <c r="B79" t="n">
-        <v>135784</v>
+        <v>166709</v>
       </c>
       <c r="C79" t="s">
         <v>621</v>
@@ -11649,7 +11649,7 @@
         <v>3959</v>
       </c>
       <c r="B80" t="n">
-        <v>135785</v>
+        <v>166710</v>
       </c>
       <c r="C80" t="s">
         <v>627</v>
@@ -11724,7 +11724,7 @@
         <v>3959</v>
       </c>
       <c r="B81" t="n">
-        <v>135786</v>
+        <v>166711</v>
       </c>
       <c r="C81" t="s">
         <v>636</v>
@@ -11799,7 +11799,7 @@
         <v>3959</v>
       </c>
       <c r="B82" t="n">
-        <v>135787</v>
+        <v>166712</v>
       </c>
       <c r="C82" t="s">
         <v>644</v>
@@ -11870,7 +11870,7 @@
         <v>3959</v>
       </c>
       <c r="B83" t="n">
-        <v>135788</v>
+        <v>166713</v>
       </c>
       <c r="C83" t="s">
         <v>653</v>
@@ -11941,7 +11941,7 @@
         <v>3959</v>
       </c>
       <c r="B84" t="n">
-        <v>135789</v>
+        <v>166714</v>
       </c>
       <c r="C84" t="s">
         <v>662</v>
@@ -12091,7 +12091,7 @@
         <v>3959</v>
       </c>
       <c r="B86" t="n">
-        <v>135790</v>
+        <v>166715</v>
       </c>
       <c r="C86" t="s">
         <v>675</v>
@@ -12162,7 +12162,7 @@
         <v>3959</v>
       </c>
       <c r="B87" t="n">
-        <v>135791</v>
+        <v>166716</v>
       </c>
       <c r="C87" t="s">
         <v>682</v>
@@ -12233,7 +12233,7 @@
         <v>3959</v>
       </c>
       <c r="B88" t="n">
-        <v>135792</v>
+        <v>166717</v>
       </c>
       <c r="C88" t="s">
         <v>687</v>
@@ -12298,7 +12298,7 @@
         <v>3959</v>
       </c>
       <c r="B89" t="n">
-        <v>135793</v>
+        <v>166718</v>
       </c>
       <c r="C89" t="s">
         <v>694</v>
@@ -12369,7 +12369,7 @@
         <v>3959</v>
       </c>
       <c r="B90" t="n">
-        <v>135794</v>
+        <v>166719</v>
       </c>
       <c r="C90" t="s">
         <v>701</v>
@@ -12431,7 +12431,7 @@
         <v>3959</v>
       </c>
       <c r="B91" t="n">
-        <v>135795</v>
+        <v>166720</v>
       </c>
       <c r="C91" t="s">
         <v>705</v>
@@ -12564,7 +12564,7 @@
         <v>3959</v>
       </c>
       <c r="B93" t="n">
-        <v>135796</v>
+        <v>166721</v>
       </c>
       <c r="C93" t="s">
         <v>715</v>
@@ -12626,7 +12626,7 @@
         <v>3959</v>
       </c>
       <c r="B94" t="n">
-        <v>135797</v>
+        <v>166722</v>
       </c>
       <c r="C94" t="s">
         <v>720</v>
@@ -12768,7 +12768,7 @@
         <v>3959</v>
       </c>
       <c r="B96" t="n">
-        <v>135798</v>
+        <v>166723</v>
       </c>
       <c r="C96" t="s">
         <v>733</v>
@@ -12839,7 +12839,7 @@
         <v>3959</v>
       </c>
       <c r="B97" t="n">
-        <v>135799</v>
+        <v>166724</v>
       </c>
       <c r="C97" t="s">
         <v>739</v>
@@ -12906,7 +12906,7 @@
         <v>3959</v>
       </c>
       <c r="B98" t="n">
-        <v>135800</v>
+        <v>166725</v>
       </c>
       <c r="C98" t="s">
         <v>747</v>
@@ -12977,7 +12977,7 @@
         <v>3959</v>
       </c>
       <c r="B99" t="n">
-        <v>135801</v>
+        <v>135741</v>
       </c>
       <c r="C99" t="s">
         <v>754</v>
@@ -13048,7 +13048,7 @@
         <v>3959</v>
       </c>
       <c r="B100" t="n">
-        <v>135802</v>
+        <v>166726</v>
       </c>
       <c r="C100" t="s">
         <v>760</v>
@@ -13113,7 +13113,7 @@
         <v>3959</v>
       </c>
       <c r="B101" t="n">
-        <v>135803</v>
+        <v>166727</v>
       </c>
       <c r="C101" t="s">
         <v>767</v>
@@ -13184,7 +13184,7 @@
         <v>3959</v>
       </c>
       <c r="B102" t="n">
-        <v>135804</v>
+        <v>166728</v>
       </c>
       <c r="C102" t="s">
         <v>774</v>
@@ -13255,7 +13255,7 @@
         <v>3959</v>
       </c>
       <c r="B103" t="n">
-        <v>135805</v>
+        <v>166729</v>
       </c>
       <c r="C103" t="s">
         <v>780</v>
@@ -13397,7 +13397,7 @@
         <v>3959</v>
       </c>
       <c r="B105" t="n">
-        <v>135806</v>
+        <v>166730</v>
       </c>
       <c r="C105" t="s">
         <v>792</v>
@@ -13458,7 +13458,7 @@
         <v>3959</v>
       </c>
       <c r="B106" t="n">
-        <v>135807</v>
+        <v>166731</v>
       </c>
       <c r="C106" t="s">
         <v>798</v>
@@ -13529,7 +13529,7 @@
         <v>3959</v>
       </c>
       <c r="B107" t="n">
-        <v>135808</v>
+        <v>166732</v>
       </c>
       <c r="C107" t="s">
         <v>804</v>
@@ -13600,7 +13600,7 @@
         <v>3959</v>
       </c>
       <c r="B108" t="n">
-        <v>135809</v>
+        <v>166733</v>
       </c>
       <c r="C108" t="s">
         <v>810</v>
@@ -13665,7 +13665,7 @@
         <v>3959</v>
       </c>
       <c r="B109" t="n">
-        <v>135810</v>
+        <v>166734</v>
       </c>
       <c r="C109" t="s">
         <v>818</v>
@@ -13736,7 +13736,7 @@
         <v>3959</v>
       </c>
       <c r="B110" t="n">
-        <v>135811</v>
+        <v>166735</v>
       </c>
       <c r="C110" t="s">
         <v>824</v>
@@ -13807,7 +13807,7 @@
         <v>3959</v>
       </c>
       <c r="B111" t="n">
-        <v>135812</v>
+        <v>166736</v>
       </c>
       <c r="C111" t="s">
         <v>830</v>
@@ -14000,7 +14000,7 @@
         <v>3959</v>
       </c>
       <c r="B114" t="n">
-        <v>135813</v>
+        <v>166737</v>
       </c>
       <c r="C114" t="s">
         <v>850</v>
@@ -14071,7 +14071,7 @@
         <v>3959</v>
       </c>
       <c r="B115" t="n">
-        <v>135814</v>
+        <v>166738</v>
       </c>
       <c r="C115" t="s">
         <v>857</v>
@@ -14211,7 +14211,7 @@
         <v>3959</v>
       </c>
       <c r="B117" t="n">
-        <v>135815</v>
+        <v>166739</v>
       </c>
       <c r="C117" t="s">
         <v>870</v>
@@ -14282,7 +14282,7 @@
         <v>3959</v>
       </c>
       <c r="B118" t="n">
-        <v>135816</v>
+        <v>166740</v>
       </c>
       <c r="C118" t="s">
         <v>876</v>
@@ -14353,7 +14353,7 @@
         <v>3959</v>
       </c>
       <c r="B119" t="n">
-        <v>135817</v>
+        <v>166741</v>
       </c>
       <c r="C119" t="s">
         <v>882</v>
@@ -14424,7 +14424,7 @@
         <v>3959</v>
       </c>
       <c r="B120" t="n">
-        <v>135818</v>
+        <v>166742</v>
       </c>
       <c r="C120" t="s">
         <v>889</v>
@@ -14495,7 +14495,7 @@
         <v>3959</v>
       </c>
       <c r="B121" t="n">
-        <v>135819</v>
+        <v>166743</v>
       </c>
       <c r="C121" t="s">
         <v>895</v>
@@ -14566,7 +14566,7 @@
         <v>3959</v>
       </c>
       <c r="B122" t="n">
-        <v>135820</v>
+        <v>166744</v>
       </c>
       <c r="C122" t="s">
         <v>900</v>
@@ -14708,7 +14708,7 @@
         <v>3959</v>
       </c>
       <c r="B124" t="n">
-        <v>135821</v>
+        <v>166745</v>
       </c>
       <c r="C124" t="s">
         <v>913</v>
@@ -14779,7 +14779,7 @@
         <v>3959</v>
       </c>
       <c r="B125" t="n">
-        <v>135822</v>
+        <v>166746</v>
       </c>
       <c r="C125" t="s">
         <v>919</v>
@@ -14850,7 +14850,7 @@
         <v>3959</v>
       </c>
       <c r="B126" t="n">
-        <v>135823</v>
+        <v>166747</v>
       </c>
       <c r="C126" t="s">
         <v>926</v>
@@ -14921,7 +14921,7 @@
         <v>3959</v>
       </c>
       <c r="B127" t="n">
-        <v>135824</v>
+        <v>166748</v>
       </c>
       <c r="C127" t="s">
         <v>932</v>
@@ -15057,7 +15057,7 @@
         <v>3959</v>
       </c>
       <c r="B129" t="n">
-        <v>135825</v>
+        <v>166749</v>
       </c>
       <c r="C129" t="s">
         <v>947</v>
@@ -15128,7 +15128,7 @@
         <v>3959</v>
       </c>
       <c r="B130" t="n">
-        <v>135826</v>
+        <v>166750</v>
       </c>
       <c r="C130" t="s">
         <v>954</v>
@@ -15199,7 +15199,7 @@
         <v>3959</v>
       </c>
       <c r="B131" t="n">
-        <v>135827</v>
+        <v>166751</v>
       </c>
       <c r="C131" t="s">
         <v>962</v>
@@ -15341,7 +15341,7 @@
         <v>3959</v>
       </c>
       <c r="B133" t="n">
-        <v>135828</v>
+        <v>166752</v>
       </c>
       <c r="C133" t="s">
         <v>973</v>
@@ -15483,7 +15483,7 @@
         <v>3959</v>
       </c>
       <c r="B135" t="n">
-        <v>135829</v>
+        <v>166753</v>
       </c>
       <c r="C135" t="s">
         <v>986</v>
@@ -15554,7 +15554,7 @@
         <v>3959</v>
       </c>
       <c r="B136" t="n">
-        <v>135830</v>
+        <v>166754</v>
       </c>
       <c r="C136" t="s">
         <v>993</v>
@@ -15615,7 +15615,7 @@
         <v>3959</v>
       </c>
       <c r="B137" t="n">
-        <v>135800</v>
+        <v>135741</v>
       </c>
       <c r="C137" t="s">
         <v>754</v>
@@ -15686,7 +15686,7 @@
         <v>3959</v>
       </c>
       <c r="B138" t="n">
-        <v>135831</v>
+        <v>166755</v>
       </c>
       <c r="C138" t="s">
         <v>1004</v>
@@ -15822,7 +15822,7 @@
         <v>3959</v>
       </c>
       <c r="B140" t="n">
-        <v>135832</v>
+        <v>166756</v>
       </c>
       <c r="C140" t="s">
         <v>1019</v>
@@ -16035,7 +16035,7 @@
         <v>3959</v>
       </c>
       <c r="B143" t="n">
-        <v>135833</v>
+        <v>166757</v>
       </c>
       <c r="C143" t="s">
         <v>1040</v>
@@ -16106,7 +16106,7 @@
         <v>3959</v>
       </c>
       <c r="B144" t="n">
-        <v>135834</v>
+        <v>166758</v>
       </c>
       <c r="C144" t="s">
         <v>1047</v>
@@ -16177,7 +16177,7 @@
         <v>3959</v>
       </c>
       <c r="B145" t="n">
-        <v>135835</v>
+        <v>166759</v>
       </c>
       <c r="C145" t="s">
         <v>1053</v>
@@ -16319,7 +16319,7 @@
         <v>3959</v>
       </c>
       <c r="B147" t="n">
-        <v>135836</v>
+        <v>166760</v>
       </c>
       <c r="C147" t="s">
         <v>1066</v>
@@ -16390,7 +16390,7 @@
         <v>3959</v>
       </c>
       <c r="B148" t="n">
-        <v>135837</v>
+        <v>166761</v>
       </c>
       <c r="C148" t="s">
         <v>1072</v>
@@ -16447,7 +16447,7 @@
         <v>3959</v>
       </c>
       <c r="B149" t="n">
-        <v>135838</v>
+        <v>166762</v>
       </c>
       <c r="C149" t="s">
         <v>1078</v>
@@ -16518,7 +16518,7 @@
         <v>3959</v>
       </c>
       <c r="B150" t="n">
-        <v>135839</v>
+        <v>166763</v>
       </c>
       <c r="C150" t="s">
         <v>1084</v>
@@ -16652,7 +16652,7 @@
         <v>3959</v>
       </c>
       <c r="B152" t="n">
-        <v>135840</v>
+        <v>166764</v>
       </c>
       <c r="C152" t="s">
         <v>1096</v>
@@ -16723,7 +16723,7 @@
         <v>3959</v>
       </c>
       <c r="B153" t="n">
-        <v>135841</v>
+        <v>166765</v>
       </c>
       <c r="C153" t="s">
         <v>1103</v>
@@ -16865,7 +16865,7 @@
         <v>3959</v>
       </c>
       <c r="B155" t="n">
-        <v>135842</v>
+        <v>166766</v>
       </c>
       <c r="C155" t="s">
         <v>1117</v>
@@ -16936,7 +16936,7 @@
         <v>3959</v>
       </c>
       <c r="B156" t="n">
-        <v>135843</v>
+        <v>166767</v>
       </c>
       <c r="C156" t="s">
         <v>1124</v>
@@ -17007,7 +17007,7 @@
         <v>3959</v>
       </c>
       <c r="B157" t="n">
-        <v>135844</v>
+        <v>166768</v>
       </c>
       <c r="C157" t="s">
         <v>1130</v>
@@ -17220,7 +17220,7 @@
         <v>3959</v>
       </c>
       <c r="B160" t="n">
-        <v>135845</v>
+        <v>166769</v>
       </c>
       <c r="C160" t="s">
         <v>1153</v>
@@ -17291,7 +17291,7 @@
         <v>3959</v>
       </c>
       <c r="B161" t="n">
-        <v>135846</v>
+        <v>166770</v>
       </c>
       <c r="C161" t="s">
         <v>1160</v>
@@ -17362,7 +17362,7 @@
         <v>3959</v>
       </c>
       <c r="B162" t="n">
-        <v>135847</v>
+        <v>166771</v>
       </c>
       <c r="C162" t="s">
         <v>1167</v>
@@ -17433,7 +17433,7 @@
         <v>3959</v>
       </c>
       <c r="B163" t="n">
-        <v>135848</v>
+        <v>166772</v>
       </c>
       <c r="C163" t="s">
         <v>1174</v>
@@ -17490,7 +17490,7 @@
         <v>3959</v>
       </c>
       <c r="B164" t="n">
-        <v>135849</v>
+        <v>166773</v>
       </c>
       <c r="C164" t="s">
         <v>1180</v>
@@ -17561,7 +17561,7 @@
         <v>3959</v>
       </c>
       <c r="B165" t="n">
-        <v>135850</v>
+        <v>166774</v>
       </c>
       <c r="C165" t="s">
         <v>1186</v>
@@ -17697,7 +17697,7 @@
         <v>3959</v>
       </c>
       <c r="B167" t="n">
-        <v>135851</v>
+        <v>166775</v>
       </c>
       <c r="C167" t="s">
         <v>1197</v>
@@ -17891,7 +17891,7 @@
         <v>3959</v>
       </c>
       <c r="B170" t="n">
-        <v>135852</v>
+        <v>166776</v>
       </c>
       <c r="C170" t="s">
         <v>1214</v>
@@ -18033,7 +18033,7 @@
         <v>3959</v>
       </c>
       <c r="B172" t="n">
-        <v>135853</v>
+        <v>166777</v>
       </c>
       <c r="C172" t="s">
         <v>1226</v>
@@ -18175,7 +18175,7 @@
         <v>3959</v>
       </c>
       <c r="B174" t="n">
-        <v>135854</v>
+        <v>166778</v>
       </c>
       <c r="C174" t="s">
         <v>1241</v>
@@ -18246,7 +18246,7 @@
         <v>3959</v>
       </c>
       <c r="B175" t="n">
-        <v>135855</v>
+        <v>166779</v>
       </c>
       <c r="C175" t="s">
         <v>1247</v>
@@ -18317,7 +18317,7 @@
         <v>3959</v>
       </c>
       <c r="B176" t="n">
-        <v>135856</v>
+        <v>166780</v>
       </c>
       <c r="C176" t="s">
         <v>1252</v>
@@ -18379,7 +18379,7 @@
         <v>3959</v>
       </c>
       <c r="B177" t="n">
-        <v>135857</v>
+        <v>135755</v>
       </c>
       <c r="C177" t="s">
         <v>1257</v>
@@ -18450,7 +18450,7 @@
         <v>3959</v>
       </c>
       <c r="B178" t="n">
-        <v>135858</v>
+        <v>166781</v>
       </c>
       <c r="C178" t="s">
         <v>1264</v>
@@ -18521,7 +18521,7 @@
         <v>3959</v>
       </c>
       <c r="B179" t="n">
-        <v>135859</v>
+        <v>166782</v>
       </c>
       <c r="C179" t="s">
         <v>1270</v>
@@ -18592,7 +18592,7 @@
         <v>3959</v>
       </c>
       <c r="B180" t="n">
-        <v>135856</v>
+        <v>135755</v>
       </c>
       <c r="C180" t="s">
         <v>1257</v>
@@ -18663,7 +18663,7 @@
         <v>3959</v>
       </c>
       <c r="B181" t="n">
-        <v>135860</v>
+        <v>166783</v>
       </c>
       <c r="C181" t="s">
         <v>1282</v>
@@ -18805,7 +18805,7 @@
         <v>3959</v>
       </c>
       <c r="B183" t="n">
-        <v>135861</v>
+        <v>166784</v>
       </c>
       <c r="C183" t="s">
         <v>1297</v>
@@ -19074,7 +19074,7 @@
         <v>3959</v>
       </c>
       <c r="B187" t="n">
-        <v>135862</v>
+        <v>166785</v>
       </c>
       <c r="C187" t="s">
         <v>1323</v>
@@ -19143,7 +19143,7 @@
         <v>3959</v>
       </c>
       <c r="B188" t="n">
-        <v>135863</v>
+        <v>166786</v>
       </c>
       <c r="C188" t="s">
         <v>1331</v>
@@ -19285,7 +19285,7 @@
         <v>3959</v>
       </c>
       <c r="B190" t="n">
-        <v>135864</v>
+        <v>166787</v>
       </c>
       <c r="C190" t="s">
         <v>1343</v>
@@ -19360,7 +19360,7 @@
         <v>3959</v>
       </c>
       <c r="B191" t="n">
-        <v>135865</v>
+        <v>166788</v>
       </c>
       <c r="C191" t="s">
         <v>1352</v>
@@ -19431,7 +19431,7 @@
         <v>3959</v>
       </c>
       <c r="B192" t="n">
-        <v>135866</v>
+        <v>166789</v>
       </c>
       <c r="C192" t="s">
         <v>1358</v>
@@ -19573,7 +19573,7 @@
         <v>3959</v>
       </c>
       <c r="B194" t="n">
-        <v>135867</v>
+        <v>166790</v>
       </c>
       <c r="C194" t="s">
         <v>1373</v>
@@ -19928,7 +19928,7 @@
         <v>3959</v>
       </c>
       <c r="B199" t="n">
-        <v>135868</v>
+        <v>166791</v>
       </c>
       <c r="C199" t="s">
         <v>1406</v>
@@ -20070,7 +20070,7 @@
         <v>3959</v>
       </c>
       <c r="B201" t="n">
-        <v>135869</v>
+        <v>166792</v>
       </c>
       <c r="C201" t="s">
         <v>1418</v>
@@ -20210,7 +20210,7 @@
         <v>3959</v>
       </c>
       <c r="B203" t="n">
-        <v>135870</v>
+        <v>166793</v>
       </c>
       <c r="C203" t="s">
         <v>1430</v>
@@ -20271,7 +20271,7 @@
         <v>3959</v>
       </c>
       <c r="B204" t="n">
-        <v>135871</v>
+        <v>166794</v>
       </c>
       <c r="C204" t="s">
         <v>1436</v>
@@ -20413,7 +20413,7 @@
         <v>3959</v>
       </c>
       <c r="B206" t="n">
-        <v>135872</v>
+        <v>166795</v>
       </c>
       <c r="C206" t="s">
         <v>1448</v>
@@ -20488,7 +20488,7 @@
         <v>3959</v>
       </c>
       <c r="B207" t="n">
-        <v>135873</v>
+        <v>166796</v>
       </c>
       <c r="C207" t="s">
         <v>1457</v>
@@ -20638,7 +20638,7 @@
         <v>3959</v>
       </c>
       <c r="B209" t="n">
-        <v>135874</v>
+        <v>166797</v>
       </c>
       <c r="C209" t="s">
         <v>1472</v>
@@ -20780,7 +20780,7 @@
         <v>3959</v>
       </c>
       <c r="B211" t="n">
-        <v>135875</v>
+        <v>166798</v>
       </c>
       <c r="C211" t="s">
         <v>1486</v>
@@ -20851,7 +20851,7 @@
         <v>3959</v>
       </c>
       <c r="B212" t="n">
-        <v>135876</v>
+        <v>166799</v>
       </c>
       <c r="C212" t="s">
         <v>1493</v>
@@ -20922,7 +20922,7 @@
         <v>3959</v>
       </c>
       <c r="B213" t="n">
-        <v>135877</v>
+        <v>166800</v>
       </c>
       <c r="C213" t="s">
         <v>1501</v>
@@ -20993,7 +20993,7 @@
         <v>3959</v>
       </c>
       <c r="B214" t="n">
-        <v>135878</v>
+        <v>166801</v>
       </c>
       <c r="C214" t="s">
         <v>1507</v>
@@ -21064,7 +21064,7 @@
         <v>3959</v>
       </c>
       <c r="B215" t="n">
-        <v>135879</v>
+        <v>166802</v>
       </c>
       <c r="C215" t="s">
         <v>1513</v>
@@ -21200,7 +21200,7 @@
         <v>3959</v>
       </c>
       <c r="B217" t="n">
-        <v>135880</v>
+        <v>166803</v>
       </c>
       <c r="C217" t="s">
         <v>1528</v>
@@ -21474,7 +21474,7 @@
         <v>3959</v>
       </c>
       <c r="B221" t="n">
-        <v>135881</v>
+        <v>166804</v>
       </c>
       <c r="C221" t="s">
         <v>1556</v>
@@ -21545,7 +21545,7 @@
         <v>3959</v>
       </c>
       <c r="B222" t="n">
-        <v>135882</v>
+        <v>166805</v>
       </c>
       <c r="C222" t="s">
         <v>1563</v>
@@ -21620,7 +21620,7 @@
         <v>3959</v>
       </c>
       <c r="B223" t="n">
-        <v>135883</v>
+        <v>166806</v>
       </c>
       <c r="C223" t="s">
         <v>1572</v>
@@ -21695,7 +21695,7 @@
         <v>3959</v>
       </c>
       <c r="B224" t="n">
-        <v>135884</v>
+        <v>166807</v>
       </c>
       <c r="C224" t="s">
         <v>1580</v>
@@ -21766,7 +21766,7 @@
         <v>3959</v>
       </c>
       <c r="B225" t="n">
-        <v>135885</v>
+        <v>166808</v>
       </c>
       <c r="C225" t="s">
         <v>1586</v>
@@ -21841,7 +21841,7 @@
         <v>3959</v>
       </c>
       <c r="B226" t="n">
-        <v>135886</v>
+        <v>166809</v>
       </c>
       <c r="C226" t="s">
         <v>1595</v>
@@ -21912,7 +21912,7 @@
         <v>3959</v>
       </c>
       <c r="B227" t="n">
-        <v>135887</v>
+        <v>166810</v>
       </c>
       <c r="C227" t="s">
         <v>1601</v>
@@ -21983,7 +21983,7 @@
         <v>3959</v>
       </c>
       <c r="B228" t="n">
-        <v>135888</v>
+        <v>166811</v>
       </c>
       <c r="C228" t="s">
         <v>1608</v>
@@ -22054,7 +22054,7 @@
         <v>3959</v>
       </c>
       <c r="B229" t="n">
-        <v>135889</v>
+        <v>166812</v>
       </c>
       <c r="C229" t="s">
         <v>1614</v>
@@ -22267,7 +22267,7 @@
         <v>3959</v>
       </c>
       <c r="B232" t="n">
-        <v>135890</v>
+        <v>166813</v>
       </c>
       <c r="C232" t="s">
         <v>1632</v>
@@ -22409,7 +22409,7 @@
         <v>3959</v>
       </c>
       <c r="B234" t="n">
-        <v>135891</v>
+        <v>166814</v>
       </c>
       <c r="C234" t="s">
         <v>1643</v>
@@ -22480,7 +22480,7 @@
         <v>3959</v>
       </c>
       <c r="B235" t="n">
-        <v>135892</v>
+        <v>166815</v>
       </c>
       <c r="C235" t="s">
         <v>1648</v>
@@ -22551,7 +22551,7 @@
         <v>3959</v>
       </c>
       <c r="B236" t="n">
-        <v>135893</v>
+        <v>166816</v>
       </c>
       <c r="C236" t="s">
         <v>1653</v>
@@ -22618,7 +22618,7 @@
         <v>3959</v>
       </c>
       <c r="B237" t="n">
-        <v>135894</v>
+        <v>166817</v>
       </c>
       <c r="C237" t="s">
         <v>1659</v>
@@ -22689,7 +22689,7 @@
         <v>3959</v>
       </c>
       <c r="B238" t="n">
-        <v>135895</v>
+        <v>166818</v>
       </c>
       <c r="C238" t="s">
         <v>1665</v>
@@ -22760,7 +22760,7 @@
         <v>3959</v>
       </c>
       <c r="B239" t="n">
-        <v>135896</v>
+        <v>166819</v>
       </c>
       <c r="C239" t="s">
         <v>1671</v>
@@ -22827,7 +22827,7 @@
         <v>3959</v>
       </c>
       <c r="B240" t="n">
-        <v>135897</v>
+        <v>166820</v>
       </c>
       <c r="C240" t="s">
         <v>1677</v>
@@ -22896,7 +22896,7 @@
         <v>3959</v>
       </c>
       <c r="B241" t="n">
-        <v>135898</v>
+        <v>166821</v>
       </c>
       <c r="C241" t="s">
         <v>1685</v>
@@ -22963,7 +22963,7 @@
         <v>3959</v>
       </c>
       <c r="B242" t="n">
-        <v>135899</v>
+        <v>166822</v>
       </c>
       <c r="C242" t="s">
         <v>1693</v>
@@ -23034,7 +23034,7 @@
         <v>3959</v>
       </c>
       <c r="B243" t="n">
-        <v>135900</v>
+        <v>166823</v>
       </c>
       <c r="C243" t="s">
         <v>1700</v>
@@ -23105,7 +23105,7 @@
         <v>3959</v>
       </c>
       <c r="B244" t="n">
-        <v>135901</v>
+        <v>166824</v>
       </c>
       <c r="C244" t="s">
         <v>1707</v>
@@ -23176,7 +23176,7 @@
         <v>3959</v>
       </c>
       <c r="B245" t="n">
-        <v>135902</v>
+        <v>166825</v>
       </c>
       <c r="C245" t="s">
         <v>1714</v>
@@ -23247,7 +23247,7 @@
         <v>3959</v>
       </c>
       <c r="B246" t="n">
-        <v>135903</v>
+        <v>166826</v>
       </c>
       <c r="C246" t="s">
         <v>1721</v>
@@ -23308,7 +23308,7 @@
         <v>3959</v>
       </c>
       <c r="B247" t="n">
-        <v>135904</v>
+        <v>166827</v>
       </c>
       <c r="C247" t="s">
         <v>1729</v>
@@ -23379,7 +23379,7 @@
         <v>3959</v>
       </c>
       <c r="B248" t="n">
-        <v>135905</v>
+        <v>166828</v>
       </c>
       <c r="C248" t="s">
         <v>1737</v>
@@ -23450,7 +23450,7 @@
         <v>3959</v>
       </c>
       <c r="B249" t="n">
-        <v>135906</v>
+        <v>166829</v>
       </c>
       <c r="C249" t="s">
         <v>1744</v>
@@ -23521,7 +23521,7 @@
         <v>3959</v>
       </c>
       <c r="B250" t="n">
-        <v>135907</v>
+        <v>166830</v>
       </c>
       <c r="C250" t="s">
         <v>1751</v>
@@ -23663,7 +23663,7 @@
         <v>3959</v>
       </c>
       <c r="B252" t="n">
-        <v>135908</v>
+        <v>166831</v>
       </c>
       <c r="C252" t="s">
         <v>1766</v>
@@ -23734,7 +23734,7 @@
         <v>3959</v>
       </c>
       <c r="B253" t="n">
-        <v>135909</v>
+        <v>166832</v>
       </c>
       <c r="C253" t="s">
         <v>1773</v>
@@ -23805,7 +23805,7 @@
         <v>3959</v>
       </c>
       <c r="B254" t="n">
-        <v>135910</v>
+        <v>166833</v>
       </c>
       <c r="C254" t="s">
         <v>1780</v>
@@ -23876,7 +23876,7 @@
         <v>3959</v>
       </c>
       <c r="B255" t="n">
-        <v>135911</v>
+        <v>166834</v>
       </c>
       <c r="C255" t="s">
         <v>1787</v>
@@ -23947,7 +23947,7 @@
         <v>3959</v>
       </c>
       <c r="B256" t="n">
-        <v>135912</v>
+        <v>166835</v>
       </c>
       <c r="C256" t="s">
         <v>1794</v>
@@ -24140,7 +24140,7 @@
         <v>3959</v>
       </c>
       <c r="B259" t="n">
-        <v>135913</v>
+        <v>166836</v>
       </c>
       <c r="C259" t="s">
         <v>1814</v>
